--- a/4.Funciones_Avanzadas/ejercicios/data.xlsx
+++ b/4.Funciones_Avanzadas/ejercicios/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harri\Downloads\Excel_Analisis_Datos\4. Funciones_Avanzadas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harri\Downloads\Excel_Analisis_Datos\4.Funciones_Avanzadas\ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21D0AF2D-C9BB-452A-B762-D9B8FF2CF33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E665E8DB-7D7D-4905-8A04-505A9A32E553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{194928A7-F2A1-4393-BCCD-DA1745B49BEA}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>Monitor</t>
+  </si>
+  <si>
+    <t>ID Buscar</t>
+  </si>
+  <si>
+    <t>Rpta</t>
   </si>
 </sst>
 </file>
@@ -139,33 +145,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="22">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -178,6 +203,12 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -194,6 +225,9 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -201,6 +235,21 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -217,6 +266,9 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -225,37 +277,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -271,33 +292,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE60581B-FF29-4198-8B88-8E4A7C419818}" name="Tabla1" displayName="Tabla1" ref="B4:E9" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DE60581B-FF29-4198-8B88-8E4A7C419818}" name="Tabla1" displayName="Tabla1" ref="B4:E9" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
   <autoFilter ref="B4:E9" xr:uid="{DE60581B-FF29-4198-8B88-8E4A7C419818}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F707298D-B5FC-4F41-8F01-DDAE67AFC3CD}" name="ID" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{981B1970-7913-4D75-AEE2-AE062712494F}" name="Nombre" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{BB9117C1-E377-4FEF-ACD3-F1D4CD25227C}" name="Cargo" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{3D729B0C-BE76-45EA-88C6-430DD618117C}" name="Salario" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{F707298D-B5FC-4F41-8F01-DDAE67AFC3CD}" name="ID" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{981B1970-7913-4D75-AEE2-AE062712494F}" name="Nombre" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{BB9117C1-E377-4FEF-ACD3-F1D4CD25227C}" name="Cargo" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{3D729B0C-BE76-45EA-88C6-430DD618117C}" name="Salario" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B7487948-818F-4715-A878-7D58351B3415}" name="Tabla2" displayName="Tabla2" ref="B4:B10" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B6ED8C0E-4C31-43CE-960A-D8CFD4683888}" name="Tabla4" displayName="Tabla4" ref="G4:H7" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="G4:H7" xr:uid="{B6ED8C0E-4C31-43CE-960A-D8CFD4683888}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{FED37835-DF5D-4D36-BD98-48BB64BDB99F}" name="ID Buscar" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{32CE3EE0-DE10-473B-AA89-06031C243A80}" name="Rpta" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B7487948-818F-4715-A878-7D58351B3415}" name="Tabla2" displayName="Tabla2" ref="B4:B10" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
   <autoFilter ref="B4:B10" xr:uid="{B7487948-818F-4715-A878-7D58351B3415}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{08ADB6C5-2DFF-4451-BCEA-F7AC907E3B18}" name="Producto" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{08ADB6C5-2DFF-4451-BCEA-F7AC907E3B18}" name="Producto" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0F3E99B9-5A8A-4A8C-85C6-EBB816AFA7D4}" name="Tabla3" displayName="Tabla3" ref="B4:B9" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowBorderDxfId="6" tableBorderDxfId="7">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0F3E99B9-5A8A-4A8C-85C6-EBB816AFA7D4}" name="Tabla3" displayName="Tabla3" ref="B4:B9" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
   <autoFilter ref="B4:B9" xr:uid="{0F3E99B9-5A8A-4A8C-85C6-EBB816AFA7D4}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{CAF21967-809C-4FF2-8F03-3FD5CD91BE42}" name="Salario" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{CAF21967-809C-4FF2-8F03-3FD5CD91BE42}" name="Salario" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -620,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954450DF-BF49-4D3B-A46E-89BF2B6C4264}">
-  <dimension ref="B4:E9"/>
+  <dimension ref="B4:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,9 +663,11 @@
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -646,8 +680,14 @@
       <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>101</v>
       </c>
@@ -660,8 +700,15 @@
       <c r="E5" s="1">
         <v>2500</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="3">
+        <v>101</v>
+      </c>
+      <c r="H5" s="3" t="str">
+        <f>VLOOKUP(G5, B4:E9,3,FALSE)</f>
+        <v>Vendedora</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>102</v>
       </c>
@@ -674,8 +721,12 @@
       <c r="E6" s="1">
         <v>3200</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="3">
+        <v>104</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>103</v>
       </c>
@@ -688,8 +739,12 @@
       <c r="E7" s="1">
         <v>4100</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="3">
+        <v>105</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>104</v>
       </c>
@@ -703,7 +758,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>105</v>
       </c>
@@ -719,8 +774,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/4.Funciones_Avanzadas/ejercicios/data.xlsx
+++ b/4.Funciones_Avanzadas/ejercicios/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harri\Downloads\Excel_Analisis_Datos\4.Funciones_Avanzadas\ejercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E665E8DB-7D7D-4905-8A04-505A9A32E553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6698342A-1CBB-4E5C-A088-621049C71DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{194928A7-F2A1-4393-BCCD-DA1745B49BEA}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -100,14 +100,17 @@
     <t>ID Buscar</t>
   </si>
   <si>
-    <t>Rpta</t>
+    <t>Vamos a usar BUSCARV para buscar el nombre que corresponde a cada ID</t>
+  </si>
+  <si>
+    <t>TABLA ORIGINAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,13 +118,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -145,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -156,6 +173,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -165,15 +189,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -236,6 +251,15 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -305,31 +329,33 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B6ED8C0E-4C31-43CE-960A-D8CFD4683888}" name="Tabla4" displayName="Tabla4" ref="G4:H7" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B6ED8C0E-4C31-43CE-960A-D8CFD4683888}" name="Tabla4" displayName="Tabla4" ref="G4:H7" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="G4:H7" xr:uid="{B6ED8C0E-4C31-43CE-960A-D8CFD4683888}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{FED37835-DF5D-4D36-BD98-48BB64BDB99F}" name="ID Buscar" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{32CE3EE0-DE10-473B-AA89-06031C243A80}" name="Rpta" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{FED37835-DF5D-4D36-BD98-48BB64BDB99F}" name="ID Buscar" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{32CE3EE0-DE10-473B-AA89-06031C243A80}" name="Nombre" dataDxfId="0">
+      <calculatedColumnFormula>VLOOKUP(G5, $B$4:$E$9,2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B7487948-818F-4715-A878-7D58351B3415}" name="Tabla2" displayName="Tabla2" ref="B4:B10" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B7487948-818F-4715-A878-7D58351B3415}" name="Tabla2" displayName="Tabla2" ref="B4:B10" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7">
   <autoFilter ref="B4:B10" xr:uid="{B7487948-818F-4715-A878-7D58351B3415}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{08ADB6C5-2DFF-4451-BCEA-F7AC907E3B18}" name="Producto" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{08ADB6C5-2DFF-4451-BCEA-F7AC907E3B18}" name="Producto" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0F3E99B9-5A8A-4A8C-85C6-EBB816AFA7D4}" name="Tabla3" displayName="Tabla3" ref="B4:B9" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0F3E99B9-5A8A-4A8C-85C6-EBB816AFA7D4}" name="Tabla3" displayName="Tabla3" ref="B4:B9" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2">
   <autoFilter ref="B4:B9" xr:uid="{0F3E99B9-5A8A-4A8C-85C6-EBB816AFA7D4}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{CAF21967-809C-4FF2-8F03-3FD5CD91BE42}" name="Salario" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{CAF21967-809C-4FF2-8F03-3FD5CD91BE42}" name="Salario" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -652,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954450DF-BF49-4D3B-A46E-89BF2B6C4264}">
-  <dimension ref="B4:H9"/>
+  <dimension ref="B2:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,10 +690,25 @@
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -684,10 +725,10 @@
         <v>19</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>101</v>
       </c>
@@ -704,11 +745,11 @@
         <v>101</v>
       </c>
       <c r="H5" s="3" t="str">
-        <f>VLOOKUP(G5, B4:E9,3,FALSE)</f>
-        <v>Vendedora</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(G5, $B$4:$E$9,2,FALSE)</f>
+        <v>Ana</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>102</v>
       </c>
@@ -724,9 +765,12 @@
       <c r="G6" s="3">
         <v>104</v>
       </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="3" t="str">
+        <f t="shared" ref="H6:H7" si="0">VLOOKUP(G6, $B$4:$E$9,2,FALSE)</f>
+        <v>Marta</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>103</v>
       </c>
@@ -742,9 +786,12 @@
       <c r="G7" s="3">
         <v>105</v>
       </c>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Sofía</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>104</v>
       </c>
@@ -758,7 +805,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>105</v>
       </c>
@@ -773,6 +820,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
